--- a/設計方針.xlsx
+++ b/設計方針.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OOCSS概念" sheetId="2" r:id="rId1"/>
@@ -2267,10 +2267,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>??</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一括で指定する。</t>
     <rPh sb="0" eb="2">
       <t>イッカツ</t>
@@ -2932,6 +2928,13 @@
   <si>
     <t>funeral-info</t>
     <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>不必要</t>
+    <rPh sb="0" eb="3">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3079,7 +3082,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3191,6 +3194,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3693,7 +3702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4097,6 +4106,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4115,7 +4180,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4137,62 +4201,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4268,6 +4277,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7707,7 +7723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -8125,8 +8141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -8210,21 +8226,21 @@
       <c r="J8" s="69" t="s">
         <v>132</v>
       </c>
-      <c r="L8" s="181" t="s">
+      <c r="L8" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="182"/>
-      <c r="N8" s="182"/>
-      <c r="O8" s="183"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:15" s="60" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77"/>
       <c r="B9" s="61"/>
-      <c r="C9" s="208" t="s">
+      <c r="C9" s="184" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="67" t="s">
         <v>105</v>
       </c>
@@ -8238,17 +8254,17 @@
         <v>115</v>
       </c>
       <c r="J9" s="76"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="186"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="208"/>
     </row>
     <row r="10" spans="1:15" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="77"/>
       <c r="B10" s="61"/>
-      <c r="C10" s="211"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="213"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
       <c r="F10" s="65" t="s">
         <v>106</v>
       </c>
@@ -8316,32 +8332,32 @@
     <row r="16" spans="1:15" s="60" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="77"/>
       <c r="B16" s="61"/>
-      <c r="C16" s="201" t="s">
+      <c r="C16" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="188" t="s">
+      <c r="D16" s="218"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
+      <c r="I16" s="210"/>
+      <c r="J16" s="211"/>
     </row>
     <row r="17" spans="1:11" s="60" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" s="77"/>
       <c r="B17" s="61"/>
-      <c r="C17" s="217" t="s">
+      <c r="C17" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="197"/>
+      <c r="G17" s="197"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="214"/>
       <c r="K17" s="60" t="s">
         <v>134</v>
       </c>
@@ -8349,159 +8365,159 @@
     <row r="18" spans="1:11" s="60" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="200" t="s">
+      <c r="C18" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="194" t="s">
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="215" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
       <c r="K18" s="96"/>
     </row>
     <row r="19" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="77"/>
       <c r="B19" s="61"/>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="196" t="s">
         <v>127</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="197" t="s">
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="198" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
     </row>
     <row r="20" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="77"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="196" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="197" t="s">
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="198" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
     </row>
     <row r="21" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="77"/>
       <c r="B21" s="61"/>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="197" t="s">
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="198" t="s">
         <v>131</v>
       </c>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="77"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="187" t="s">
+      <c r="C22" s="196" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="198"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
     </row>
     <row r="23" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="77"/>
       <c r="B23" s="61"/>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="196" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="197"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
       <c r="B24" s="61"/>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="196" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="197" t="s">
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="198" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
     </row>
     <row r="25" spans="1:11" s="60" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="200" t="s">
+      <c r="C25" s="195" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="218" t="s">
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
     </row>
     <row r="26" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="77"/>
       <c r="B26" s="61"/>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="196" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="197" t="s">
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="198" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
       <c r="B27" s="61"/>
-      <c r="C27" s="187" t="s">
+      <c r="C27" s="196" t="s">
         <v>160</v>
       </c>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="197" t="s">
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
     </row>
     <row r="28" spans="1:11" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="77"/>
@@ -8613,44 +8629,44 @@
         <v>194</v>
       </c>
       <c r="E41" s="126"/>
-      <c r="F41" s="216" t="s">
+      <c r="F41" s="194" t="s">
         <v>193</v>
       </c>
-      <c r="G41" s="216"/>
-      <c r="H41" s="216"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
     </row>
     <row r="42" spans="1:9" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="B42" s="61"/>
-      <c r="C42" s="117">
+      <c r="C42" s="244">
         <v>1</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="245" t="s">
         <v>196</v>
       </c>
-      <c r="E42" s="113"/>
-      <c r="F42" s="111" t="s">
+      <c r="E42" s="246"/>
+      <c r="F42" s="245" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="112"/>
-      <c r="H42" s="113"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="246"/>
       <c r="I42" s="60" t="s">
-        <v>229</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="B43" s="61"/>
-      <c r="C43" s="117">
+      <c r="C43" s="244">
         <v>2</v>
       </c>
-      <c r="D43" s="127" t="s">
+      <c r="D43" s="248" t="s">
         <v>197</v>
       </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111" t="s">
+      <c r="E43" s="245"/>
+      <c r="F43" s="245" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="112"/>
-      <c r="H43" s="113"/>
+      <c r="G43" s="247"/>
+      <c r="H43" s="246"/>
     </row>
     <row r="44" spans="1:9" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="B44" s="61"/>
@@ -8667,7 +8683,7 @@
       <c r="G44" s="112"/>
       <c r="H44" s="113"/>
       <c r="I44" s="60" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -8700,7 +8716,7 @@
       <c r="G46" s="112"/>
       <c r="H46" s="113"/>
       <c r="I46" s="60" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
@@ -8737,45 +8753,45 @@
     </row>
     <row r="52" spans="2:8" s="60" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="B52" s="61"/>
-      <c r="D52" s="202" t="s">
+      <c r="D52" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="E52" s="204"/>
-      <c r="F52" s="202" t="s">
+      <c r="E52" s="191"/>
+      <c r="F52" s="190" t="s">
         <v>212</v>
       </c>
-      <c r="G52" s="203"/>
-      <c r="H52" s="204"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="191"/>
     </row>
     <row r="53" spans="2:8" s="60" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="61"/>
-      <c r="D53" s="214" t="s">
+      <c r="D53" s="192" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="215"/>
-      <c r="F53" s="205"/>
-      <c r="G53" s="206"/>
-      <c r="H53" s="207"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="181"/>
+      <c r="G53" s="182"/>
+      <c r="H53" s="183"/>
     </row>
     <row r="54" spans="2:8" s="60" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="61"/>
-      <c r="D54" s="214" t="s">
+      <c r="D54" s="192" t="s">
         <v>213</v>
       </c>
-      <c r="E54" s="215"/>
-      <c r="F54" s="205"/>
-      <c r="G54" s="206"/>
-      <c r="H54" s="207"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="181"/>
+      <c r="G54" s="182"/>
+      <c r="H54" s="183"/>
     </row>
     <row r="55" spans="2:8" s="60" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="61"/>
-      <c r="D55" s="214" t="s">
+      <c r="D55" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="215"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="206"/>
-      <c r="H55" s="207"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="181"/>
+      <c r="G55" s="182"/>
+      <c r="H55" s="183"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="C57" s="118" t="s">
@@ -8804,6 +8820,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="L8:O9"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="C9:E10"/>
@@ -8820,25 +8855,6 @@
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L8:O9"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8852,7 +8868,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -9210,8 +9226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9434,7 +9450,7 @@
         <v>2</v>
       </c>
       <c r="AA26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="24:27" x14ac:dyDescent="0.15">
@@ -9795,7 +9811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -9814,40 +9830,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="135" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="135" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1" s="135" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D1" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="135" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="135" t="s">
-        <v>258</v>
-      </c>
       <c r="F1" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="135" t="s">
-        <v>261</v>
-      </c>
       <c r="H1" s="135" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I1" s="135" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="135" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="K1" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="135" t="s">
-        <v>272</v>
-      </c>
       <c r="L1" s="135" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -9855,21 +9871,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="156"/>
       <c r="D2" s="156"/>
       <c r="E2" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G2" s="138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H2" s="138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I2" s="138"/>
       <c r="J2" s="138"/>
@@ -9881,21 +9897,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="157"/>
       <c r="D3" s="157"/>
       <c r="E3" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G3" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H3" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I3" s="138"/>
       <c r="J3" s="138"/>
@@ -9907,21 +9923,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="141" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="157"/>
       <c r="D4" s="157"/>
       <c r="E4" s="136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" s="138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" s="138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4" s="138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I4" s="138"/>
       <c r="J4" s="138"/>
@@ -9933,14 +9949,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="142" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
       <c r="E5" s="136"/>
       <c r="F5" s="138"/>
       <c r="G5" s="138" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H5" s="138"/>
       <c r="I5" s="138"/>
@@ -9953,14 +9969,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="157"/>
       <c r="D6" s="157"/>
       <c r="E6" s="136"/>
       <c r="F6" s="138"/>
       <c r="G6" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="138"/>
       <c r="I6" s="138"/>
@@ -9973,14 +9989,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="157"/>
       <c r="D7" s="157"/>
       <c r="E7" s="136"/>
       <c r="F7" s="138"/>
       <c r="G7" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H7" s="138"/>
       <c r="I7" s="138"/>
@@ -9993,14 +10009,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="157"/>
       <c r="D8" s="157"/>
       <c r="E8" s="136"/>
       <c r="F8" s="138"/>
       <c r="G8" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H8" s="138"/>
       <c r="I8" s="138"/>
@@ -10020,7 +10036,7 @@
       <c r="E9" s="136"/>
       <c r="F9" s="138"/>
       <c r="G9" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H9" s="138"/>
       <c r="I9" s="138"/>
@@ -10040,7 +10056,7 @@
       <c r="E10" s="136"/>
       <c r="F10" s="138"/>
       <c r="G10" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10" s="138"/>
       <c r="I10" s="138"/>
@@ -10060,7 +10076,7 @@
       <c r="E11" s="136"/>
       <c r="F11" s="138"/>
       <c r="G11" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11" s="138"/>
       <c r="I11" s="138"/>
@@ -10073,14 +10089,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="157"/>
       <c r="D12" s="157"/>
       <c r="E12" s="136"/>
       <c r="F12" s="138"/>
       <c r="G12" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H12" s="138"/>
       <c r="I12" s="138"/>
@@ -10093,14 +10109,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="157"/>
       <c r="D13" s="157"/>
       <c r="E13" s="136"/>
       <c r="F13" s="138"/>
       <c r="G13" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H13" s="138"/>
       <c r="I13" s="138"/>
@@ -10113,14 +10129,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C14" s="157"/>
       <c r="D14" s="157"/>
       <c r="E14" s="136"/>
       <c r="F14" s="138"/>
       <c r="G14" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" s="138"/>
       <c r="I14" s="138"/>
@@ -10133,14 +10149,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="158"/>
       <c r="D15" s="158"/>
       <c r="E15" s="136"/>
       <c r="F15" s="138"/>
       <c r="G15" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H15" s="138"/>
       <c r="I15" s="138"/>
@@ -10150,7 +10166,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="137" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B16" s="145"/>
       <c r="C16" s="145"/>
@@ -10169,10 +10185,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="146" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C17" s="159" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="159"/>
       <c r="E17" s="136"/>
@@ -10183,7 +10199,7 @@
       <c r="J17" s="138"/>
       <c r="K17" s="138"/>
       <c r="L17" s="161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
@@ -10191,10 +10207,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="147" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="160" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D18" s="160"/>
       <c r="E18" s="136"/>
@@ -10204,10 +10220,10 @@
       <c r="I18" s="138"/>
       <c r="J18" s="138"/>
       <c r="K18" s="138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L18" s="161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -10215,10 +10231,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="146" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C19" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D19" s="159"/>
       <c r="E19" s="136"/>
@@ -10228,10 +10244,10 @@
       <c r="I19" s="138"/>
       <c r="J19" s="138"/>
       <c r="K19" s="138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L19" s="161" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -10239,10 +10255,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="146" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D20" s="159"/>
       <c r="E20" s="136"/>
@@ -10252,7 +10268,7 @@
       <c r="I20" s="138"/>
       <c r="J20" s="138"/>
       <c r="K20" s="138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L20" s="161"/>
     </row>
@@ -10273,10 +10289,10 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="136"/>
       <c r="B22" s="146" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" s="159"/>
       <c r="E22" s="136"/>
@@ -10291,10 +10307,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="136"/>
       <c r="B23" s="146" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="159" t="s">
         <v>302</v>
-      </c>
-      <c r="C23" s="159" t="s">
-        <v>303</v>
       </c>
       <c r="D23" s="159"/>
       <c r="E23" s="136"/>
@@ -10309,10 +10325,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="136"/>
       <c r="B24" s="146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D24" s="159"/>
       <c r="E24" s="136"/>
@@ -10327,10 +10343,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="136"/>
       <c r="B25" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" s="161" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D25" s="161"/>
       <c r="E25" s="136"/>
@@ -10345,10 +10361,10 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="136"/>
       <c r="B26" s="136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C26" s="162" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D26" s="162"/>
       <c r="E26" s="136"/>
@@ -10446,7 +10462,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="137" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B33" s="145"/>
       <c r="C33" s="145"/>
@@ -10462,13 +10478,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="138" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="146" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C34" s="159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D34" s="159"/>
       <c r="E34" s="136"/>
@@ -10478,10 +10494,10 @@
       <c r="I34" s="167"/>
       <c r="J34" s="167"/>
       <c r="K34" s="138" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L34" s="162" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
@@ -10492,7 +10508,7 @@
         <v>83</v>
       </c>
       <c r="C35" s="159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D35" s="159"/>
       <c r="E35" s="136"/>
@@ -10509,10 +10525,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="148" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" s="159" t="s">
         <v>308</v>
-      </c>
-      <c r="C36" s="159" t="s">
-        <v>309</v>
       </c>
       <c r="D36" s="159"/>
       <c r="E36" s="136"/>
@@ -10532,7 +10548,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D37" s="159"/>
       <c r="E37" s="136"/>
@@ -10546,13 +10562,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="138" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" s="146" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="159" t="s">
         <v>310</v>
-      </c>
-      <c r="C38" s="159" t="s">
-        <v>311</v>
       </c>
       <c r="D38" s="159"/>
       <c r="E38" s="136"/>
@@ -10572,7 +10588,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D39" s="159"/>
       <c r="E39" s="136"/>
@@ -10592,7 +10608,7 @@
         <v>88</v>
       </c>
       <c r="C40" s="159" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D40" s="159"/>
       <c r="E40" s="136"/>
@@ -10603,18 +10619,18 @@
       <c r="J40" s="136"/>
       <c r="K40" s="136"/>
       <c r="L40" s="162" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="138" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B41" s="146" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="159" t="s">
         <v>314</v>
-      </c>
-      <c r="C41" s="159" t="s">
-        <v>315</v>
       </c>
       <c r="D41" s="159"/>
       <c r="E41" s="136"/>
@@ -10634,7 +10650,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D42" s="159"/>
       <c r="E42" s="136"/>
@@ -10654,7 +10670,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43" s="159"/>
       <c r="E43" s="136"/>
@@ -10671,10 +10687,10 @@
         <v>15</v>
       </c>
       <c r="B44" s="150" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C44" s="159" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="159"/>
       <c r="E44" s="136"/>
@@ -10694,7 +10710,7 @@
         <v>93</v>
       </c>
       <c r="C45" s="159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D45" s="159"/>
       <c r="E45" s="136"/>
@@ -10714,7 +10730,7 @@
         <v>94</v>
       </c>
       <c r="C46" s="159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D46" s="159"/>
       <c r="E46" s="136"/>
@@ -10728,13 +10744,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="138" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="146" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D47" s="159"/>
       <c r="E47" s="136"/>
@@ -10751,10 +10767,10 @@
         <v>19</v>
       </c>
       <c r="B48" s="151" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C48" s="159" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D48" s="159"/>
       <c r="E48" s="136"/>
@@ -10771,10 +10787,10 @@
         <v>20</v>
       </c>
       <c r="B49" s="151" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C49" s="159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D49" s="159"/>
       <c r="E49" s="136"/>
@@ -10791,10 +10807,10 @@
         <v>21</v>
       </c>
       <c r="B50" s="151" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C50" s="159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D50" s="159"/>
       <c r="E50" s="136"/>
@@ -10811,10 +10827,10 @@
         <v>22</v>
       </c>
       <c r="B51" s="152" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C51" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D51" s="159"/>
       <c r="E51" s="136"/>
@@ -10834,7 +10850,7 @@
         <v>100</v>
       </c>
       <c r="C52" s="159" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D52" s="159"/>
       <c r="E52" s="136"/>
@@ -10854,7 +10870,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D53" s="159"/>
       <c r="E53" s="136"/>
@@ -10869,10 +10885,10 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" s="138"/>
       <c r="B54" s="154" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D54" s="162"/>
       <c r="E54" s="136"/>
@@ -10882,19 +10898,19 @@
       <c r="I54" s="136"/>
       <c r="J54" s="136"/>
       <c r="K54" s="136" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L54" s="162" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="138"/>
       <c r="B55" s="154" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="162" t="s">
         <v>325</v>
-      </c>
-      <c r="C55" s="162" t="s">
-        <v>326</v>
       </c>
       <c r="D55" s="162"/>
       <c r="E55" s="136"/>
@@ -10909,10 +10925,10 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="138"/>
       <c r="B56" s="154" t="s">
+        <v>326</v>
+      </c>
+      <c r="C56" s="162" t="s">
         <v>327</v>
-      </c>
-      <c r="C56" s="162" t="s">
-        <v>328</v>
       </c>
       <c r="D56" s="162"/>
       <c r="E56" s="136"/>
@@ -10923,16 +10939,16 @@
       <c r="J56" s="136"/>
       <c r="K56" s="136"/>
       <c r="L56" s="162" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="138"/>
       <c r="B57" s="154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="162" t="s">
         <v>293</v>
-      </c>
-      <c r="C57" s="162" t="s">
-        <v>294</v>
       </c>
       <c r="D57" s="162"/>
       <c r="E57" s="136"/>
@@ -10947,10 +10963,10 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="138"/>
       <c r="B58" s="154" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C58" s="162" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="162"/>
       <c r="E58" s="136"/>
@@ -10965,10 +10981,10 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="138"/>
       <c r="B59" s="155" t="s">
+        <v>329</v>
+      </c>
+      <c r="C59" s="163" t="s">
         <v>330</v>
-      </c>
-      <c r="C59" s="163" t="s">
-        <v>331</v>
       </c>
       <c r="D59" s="162"/>
       <c r="E59" s="136"/>
